--- a/DesignDocs/VariableData/NpcSkill.xlsx
+++ b/DesignDocs/VariableData/NpcSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59341DD-5808-494B-8537-6040F499FF3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F4082-1B57-4D0B-A54C-1B73A292B08F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,18 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>style_tube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enhancer_tube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooler_tube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no107_style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +170,19 @@
   <si>
     <t>jake_cooler</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameKor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>styleTube</t>
+  </si>
+  <si>
+    <t>enhancerTube</t>
+  </si>
+  <si>
+    <t>coolerTube</t>
   </si>
 </sst>
 </file>
@@ -548,7 +549,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -592,13 +593,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -612,13 +613,13 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -632,13 +633,13 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">

--- a/DesignDocs/VariableData/NpcSkill.xlsx
+++ b/DesignDocs/VariableData/NpcSkill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F4082-1B57-4D0B-A54C-1B73A292B08F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,14 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19_DeadlyAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19_CriticalHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데들리 어택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19_Badbomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썩은 폭탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19_MustleMustle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,14 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19_CastleCastle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐슬캐슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no107_style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,18 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jake_style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jake_enhancer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jake_cooler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nameKor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,12 +146,92 @@
   </si>
   <si>
     <t>coolerTube</t>
+  </si>
+  <si>
+    <t>19_deadlyattack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_criticalhit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relicTube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doncina01_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doncina01_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doncina01_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doncina02_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doncina02_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doncina02_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doncina02_relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩은폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩은돌팔매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_B_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_B_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_B_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_R_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_R_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_R_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_jakebounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_jakerange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,11 +588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -557,12 +600,13 @@
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,109 +614,142 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>19100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>19101</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>19102</v>
-      </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19103</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>19104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>19200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>19201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>19200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>19201</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>19202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DesignDocs/VariableData/NpcSkill.xlsx
+++ b/DesignDocs/VariableData/NpcSkill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,74 @@
   </si>
   <si>
     <t>19_jakerange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Cleaner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_CleanerR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 청소부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_R_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_R_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_R_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleanerR_relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_mingkies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밍키즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingkies_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minkies_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingkies_cooler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,24 +657,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>19100</v>
       </c>
@@ -649,7 +717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>19101</v>
       </c>
@@ -669,7 +737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>19103</v>
       </c>
@@ -689,7 +757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>19104</v>
       </c>
@@ -709,7 +777,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>19200</v>
       </c>
@@ -729,7 +797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>19201</v>
       </c>
@@ -750,6 +818,72 @@
       </c>
       <c r="G7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>19105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>19106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>19107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -767,13 +901,13 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.75" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -787,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -795,7 +929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -803,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -811,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -819,7 +953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -827,7 +961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>7</v>
       </c>

--- a/DesignDocs/VariableData/NpcSkill.xlsx
+++ b/DesignDocs/VariableData/NpcSkill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668E147B-0583-4118-B975-96423232BD76}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="207">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,13 +294,462 @@
   </si>
   <si>
     <t>mingkies_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이1 스킬 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이1 스킬 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이2 스킬 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이2 스킬 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핏불 스킬 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핏불 스킬 01</t>
+  </si>
+  <si>
+    <t>핏불 스킬 02</t>
+  </si>
+  <si>
+    <t>부엉이 스킬 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부엉이 스킬 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까마귀 스킬 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까마귀 스킬 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도롱뇽 스킬 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카르바노그 스킬 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카르바노그 스킬 01</t>
+  </si>
+  <si>
+    <t>카르바노그 스킬 02</t>
+  </si>
+  <si>
+    <t>카르바노그 스킬 03</t>
+  </si>
+  <si>
+    <t>태그 스킬 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그 스킬 01</t>
+  </si>
+  <si>
+    <t>태그 스킬 02</t>
+  </si>
+  <si>
+    <t>팀 스킬 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 스킬 01</t>
+  </si>
+  <si>
+    <t>팀 스킬 02</t>
+  </si>
+  <si>
+    <t>팀 스킬 03</t>
+  </si>
+  <si>
+    <t>매드버리 스킬 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매드버리 스킬 01</t>
+  </si>
+  <si>
+    <t>매드버리 스킬 02</t>
+  </si>
+  <si>
+    <t>매드버리 스킬 03</t>
+  </si>
+  <si>
+    <t>13_cat_01_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_cat_01_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_cat_02_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_pitbull_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_pitbull_01</t>
+  </si>
+  <si>
+    <t>13_pitbull_02</t>
+  </si>
+  <si>
+    <t>13_owl_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_owl_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_crow_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_crow_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_salamander_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_carbannog_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_carbannog_01</t>
+  </si>
+  <si>
+    <t>13_carbannog_02</t>
+  </si>
+  <si>
+    <t>13_carbannog_03</t>
+  </si>
+  <si>
+    <t>13_tag_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_tag_01</t>
+  </si>
+  <si>
+    <t>13_tag_02</t>
+  </si>
+  <si>
+    <t>13_tim_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_tim_01</t>
+  </si>
+  <si>
+    <t>13_tim_02</t>
+  </si>
+  <si>
+    <t>13_tim_03</t>
+  </si>
+  <si>
+    <t>13_madbuddy_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_madbuddy_01</t>
+  </si>
+  <si>
+    <t>13_madbuddy_02</t>
+  </si>
+  <si>
+    <t>13_madbuddy_03</t>
+  </si>
+  <si>
+    <t>13_cat_01_style_00_style</t>
+  </si>
+  <si>
+    <t>13_cat_01_style_01_style</t>
+  </si>
+  <si>
+    <t>13_cat_02_style_00_style</t>
+  </si>
+  <si>
+    <t>13_pitbull_00_style</t>
+  </si>
+  <si>
+    <t>13_pitbull_01_style</t>
+  </si>
+  <si>
+    <t>13_pitbull_02_style</t>
+  </si>
+  <si>
+    <t>13_owl_00_style</t>
+  </si>
+  <si>
+    <t>13_owl_01_style</t>
+  </si>
+  <si>
+    <t>13_crow_00_style</t>
+  </si>
+  <si>
+    <t>13_crow_01_style</t>
+  </si>
+  <si>
+    <t>13_salamander_00_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_00_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_01_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_02_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_03_style</t>
+  </si>
+  <si>
+    <t>13_tag_00_style</t>
+  </si>
+  <si>
+    <t>13_tag_01_style</t>
+  </si>
+  <si>
+    <t>13_tag_02_style</t>
+  </si>
+  <si>
+    <t>13_tim_00_style</t>
+  </si>
+  <si>
+    <t>13_tim_01_style</t>
+  </si>
+  <si>
+    <t>13_tim_02_style</t>
+  </si>
+  <si>
+    <t>13_tim_03_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_00_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_01_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_02_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_03_style</t>
+  </si>
+  <si>
+    <t>13_cat_01_enhancer_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_cat_01_enhancer_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_cat_02_enhancer_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_pitbull_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_pitbull_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_pitbull_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_owl_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_owl_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_crow_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_crow_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_salamander_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_03_enhancer</t>
+  </si>
+  <si>
+    <t>13_tag_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_tag_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_tag_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_03_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_03_enhancer</t>
+  </si>
+  <si>
+    <t>13_cat_01_cooler_00_cooler</t>
+  </si>
+  <si>
+    <t>13_cat_01_cooler_01_cooler</t>
+  </si>
+  <si>
+    <t>13_cat_02_cooler_00_cooler</t>
+  </si>
+  <si>
+    <t>13_pitbull_00_cooler</t>
+  </si>
+  <si>
+    <t>13_pitbull_01_cooler</t>
+  </si>
+  <si>
+    <t>13_pitbull_02_cooler</t>
+  </si>
+  <si>
+    <t>13_owl_00_cooler</t>
+  </si>
+  <si>
+    <t>13_owl_01_cooler</t>
+  </si>
+  <si>
+    <t>13_crow_00_cooler</t>
+  </si>
+  <si>
+    <t>13_crow_01_cooler</t>
+  </si>
+  <si>
+    <t>13_salamander_00_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_00_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_01_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_02_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_03_cooler</t>
+  </si>
+  <si>
+    <t>13_tag_00_cooler</t>
+  </si>
+  <si>
+    <t>13_tag_01_cooler</t>
+  </si>
+  <si>
+    <t>13_tag_02_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_00_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_01_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_02_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_03_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_00_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_01_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_02_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_03_cooler</t>
+  </si>
+  <si>
+    <t>13_cat_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_pitbull_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Salamander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Caerbannog</t>
+  </si>
+  <si>
+    <t>13_Tim_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Tim_02</t>
+  </si>
+  <si>
+    <t>13_Tim_03</t>
+  </si>
+  <si>
+    <t>13_MadBuddy_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,12 +767,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -339,8 +795,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,25 +1115,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +1156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19100</v>
       </c>
@@ -717,7 +1176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19101</v>
       </c>
@@ -737,7 +1196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19103</v>
       </c>
@@ -757,7 +1216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>19104</v>
       </c>
@@ -777,7 +1236,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>19200</v>
       </c>
@@ -797,7 +1256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19201</v>
       </c>
@@ -820,7 +1279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19105</v>
       </c>
@@ -843,7 +1302,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>19106</v>
       </c>
@@ -866,7 +1325,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>19107</v>
       </c>
@@ -884,6 +1343,582 @@
       </c>
       <c r="F10" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>13100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>13101</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>13103</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -894,20 +1929,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -921,7 +1956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -929,7 +1964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -937,7 +1972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -945,7 +1980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -953,7 +1988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -961,7 +1996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>7</v>
       </c>

--- a/DesignDocs/VariableData/NpcSkill.xlsx
+++ b/DesignDocs/VariableData/NpcSkill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668E147B-0583-4118-B975-96423232BD76}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F67EB-496D-4CD1-A666-6041E863AB3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocs/VariableData/NpcSkill.xlsx
+++ b/DesignDocs/VariableData/NpcSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F67EB-496D-4CD1-A666-6041E863AB3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A366C866-C08E-409F-B19B-FBA2BC1C663C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="208">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,336 +392,248 @@
     <t>매드버리 스킬 03</t>
   </si>
   <si>
-    <t>13_cat_01_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_cat_01_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_cat_02_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_pitbull_00</t>
+    <t>13_pitbull_02</t>
+  </si>
+  <si>
+    <t>13_cat_01_style_00_style</t>
+  </si>
+  <si>
+    <t>13_cat_01_style_01_style</t>
+  </si>
+  <si>
+    <t>13_cat_02_style_00_style</t>
+  </si>
+  <si>
+    <t>13_pitbull_00_style</t>
+  </si>
+  <si>
+    <t>13_pitbull_01_style</t>
+  </si>
+  <si>
+    <t>13_pitbull_02_style</t>
+  </si>
+  <si>
+    <t>13_owl_00_style</t>
+  </si>
+  <si>
+    <t>13_owl_01_style</t>
+  </si>
+  <si>
+    <t>13_crow_00_style</t>
+  </si>
+  <si>
+    <t>13_crow_01_style</t>
+  </si>
+  <si>
+    <t>13_salamander_00_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_00_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_01_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_02_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_03_style</t>
+  </si>
+  <si>
+    <t>13_tag_00_style</t>
+  </si>
+  <si>
+    <t>13_tag_01_style</t>
+  </si>
+  <si>
+    <t>13_tag_02_style</t>
+  </si>
+  <si>
+    <t>13_tim_00_style</t>
+  </si>
+  <si>
+    <t>13_tim_01_style</t>
+  </si>
+  <si>
+    <t>13_tim_02_style</t>
+  </si>
+  <si>
+    <t>13_tim_03_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_00_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_01_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_02_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_03_style</t>
+  </si>
+  <si>
+    <t>13_cat_01_enhancer_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_cat_01_enhancer_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_cat_02_enhancer_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_pitbull_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_pitbull_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_pitbull_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_owl_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_owl_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_crow_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_crow_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_salamander_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_03_enhancer</t>
+  </si>
+  <si>
+    <t>13_tag_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_tag_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_tag_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_03_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_03_enhancer</t>
+  </si>
+  <si>
+    <t>13_cat_01_cooler_00_cooler</t>
+  </si>
+  <si>
+    <t>13_cat_01_cooler_01_cooler</t>
+  </si>
+  <si>
+    <t>13_cat_02_cooler_00_cooler</t>
+  </si>
+  <si>
+    <t>13_pitbull_00_cooler</t>
+  </si>
+  <si>
+    <t>13_pitbull_01_cooler</t>
+  </si>
+  <si>
+    <t>13_pitbull_02_cooler</t>
+  </si>
+  <si>
+    <t>13_owl_00_cooler</t>
+  </si>
+  <si>
+    <t>13_owl_01_cooler</t>
+  </si>
+  <si>
+    <t>13_crow_00_cooler</t>
+  </si>
+  <si>
+    <t>13_crow_01_cooler</t>
+  </si>
+  <si>
+    <t>13_salamander_00_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_00_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_01_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_02_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_03_cooler</t>
+  </si>
+  <si>
+    <t>13_tag_00_cooler</t>
+  </si>
+  <si>
+    <t>13_tag_01_cooler</t>
+  </si>
+  <si>
+    <t>13_tag_02_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_00_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_01_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_02_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_03_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_00_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_01_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_02_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_03_cooler</t>
+  </si>
+  <si>
+    <t>13_cat_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13_pitbull_01</t>
-  </si>
-  <si>
-    <t>13_pitbull_02</t>
-  </si>
-  <si>
-    <t>13_owl_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_owl_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_crow_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_crow_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_salamander_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_carbannog_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_carbannog_01</t>
-  </si>
-  <si>
-    <t>13_carbannog_02</t>
-  </si>
-  <si>
-    <t>13_carbannog_03</t>
-  </si>
-  <si>
-    <t>13_tag_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_tag_01</t>
-  </si>
-  <si>
-    <t>13_tag_02</t>
-  </si>
-  <si>
-    <t>13_tim_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_tim_01</t>
-  </si>
-  <si>
-    <t>13_tim_02</t>
-  </si>
-  <si>
-    <t>13_tim_03</t>
-  </si>
-  <si>
-    <t>13_madbuddy_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_madbuddy_01</t>
-  </si>
-  <si>
-    <t>13_madbuddy_02</t>
-  </si>
-  <si>
-    <t>13_madbuddy_03</t>
-  </si>
-  <si>
-    <t>13_cat_01_style_00_style</t>
-  </si>
-  <si>
-    <t>13_cat_01_style_01_style</t>
-  </si>
-  <si>
-    <t>13_cat_02_style_00_style</t>
-  </si>
-  <si>
-    <t>13_pitbull_00_style</t>
-  </si>
-  <si>
-    <t>13_pitbull_01_style</t>
-  </si>
-  <si>
-    <t>13_pitbull_02_style</t>
-  </si>
-  <si>
-    <t>13_owl_00_style</t>
-  </si>
-  <si>
-    <t>13_owl_01_style</t>
-  </si>
-  <si>
-    <t>13_crow_00_style</t>
-  </si>
-  <si>
-    <t>13_crow_01_style</t>
-  </si>
-  <si>
-    <t>13_salamander_00_style</t>
-  </si>
-  <si>
-    <t>13_carbannog_00_style</t>
-  </si>
-  <si>
-    <t>13_carbannog_01_style</t>
-  </si>
-  <si>
-    <t>13_carbannog_02_style</t>
-  </si>
-  <si>
-    <t>13_carbannog_03_style</t>
-  </si>
-  <si>
-    <t>13_tag_00_style</t>
-  </si>
-  <si>
-    <t>13_tag_01_style</t>
-  </si>
-  <si>
-    <t>13_tag_02_style</t>
-  </si>
-  <si>
-    <t>13_tim_00_style</t>
-  </si>
-  <si>
-    <t>13_tim_01_style</t>
-  </si>
-  <si>
-    <t>13_tim_02_style</t>
-  </si>
-  <si>
-    <t>13_tim_03_style</t>
-  </si>
-  <si>
-    <t>13_madbuddy_00_style</t>
-  </si>
-  <si>
-    <t>13_madbuddy_01_style</t>
-  </si>
-  <si>
-    <t>13_madbuddy_02_style</t>
-  </si>
-  <si>
-    <t>13_madbuddy_03_style</t>
-  </si>
-  <si>
-    <t>13_cat_01_enhancer_00_enhancer</t>
-  </si>
-  <si>
-    <t>13_cat_01_enhancer_01_enhancer</t>
-  </si>
-  <si>
-    <t>13_cat_02_enhancer_00_enhancer</t>
-  </si>
-  <si>
-    <t>13_pitbull_00_enhancer</t>
-  </si>
-  <si>
-    <t>13_pitbull_01_enhancer</t>
-  </si>
-  <si>
-    <t>13_pitbull_02_enhancer</t>
-  </si>
-  <si>
-    <t>13_owl_00_enhancer</t>
-  </si>
-  <si>
-    <t>13_owl_01_enhancer</t>
-  </si>
-  <si>
-    <t>13_crow_00_enhancer</t>
-  </si>
-  <si>
-    <t>13_crow_01_enhancer</t>
-  </si>
-  <si>
-    <t>13_salamander_00_enhancer</t>
-  </si>
-  <si>
-    <t>13_carbannog_00_enhancer</t>
-  </si>
-  <si>
-    <t>13_carbannog_01_enhancer</t>
-  </si>
-  <si>
-    <t>13_carbannog_02_enhancer</t>
-  </si>
-  <si>
-    <t>13_carbannog_03_enhancer</t>
-  </si>
-  <si>
-    <t>13_tag_00_enhancer</t>
-  </si>
-  <si>
-    <t>13_tag_01_enhancer</t>
-  </si>
-  <si>
-    <t>13_tag_02_enhancer</t>
-  </si>
-  <si>
-    <t>13_tim_00_enhancer</t>
-  </si>
-  <si>
-    <t>13_tim_01_enhancer</t>
-  </si>
-  <si>
-    <t>13_tim_02_enhancer</t>
-  </si>
-  <si>
-    <t>13_tim_03_enhancer</t>
-  </si>
-  <si>
-    <t>13_madbuddy_00_enhancer</t>
-  </si>
-  <si>
-    <t>13_madbuddy_01_enhancer</t>
-  </si>
-  <si>
-    <t>13_madbuddy_02_enhancer</t>
-  </si>
-  <si>
-    <t>13_madbuddy_03_enhancer</t>
-  </si>
-  <si>
-    <t>13_cat_01_cooler_00_cooler</t>
-  </si>
-  <si>
-    <t>13_cat_01_cooler_01_cooler</t>
-  </si>
-  <si>
-    <t>13_cat_02_cooler_00_cooler</t>
-  </si>
-  <si>
-    <t>13_pitbull_00_cooler</t>
-  </si>
-  <si>
-    <t>13_pitbull_01_cooler</t>
-  </si>
-  <si>
-    <t>13_pitbull_02_cooler</t>
-  </si>
-  <si>
-    <t>13_owl_00_cooler</t>
-  </si>
-  <si>
-    <t>13_owl_01_cooler</t>
-  </si>
-  <si>
-    <t>13_crow_00_cooler</t>
-  </si>
-  <si>
-    <t>13_crow_01_cooler</t>
-  </si>
-  <si>
-    <t>13_salamander_00_cooler</t>
-  </si>
-  <si>
-    <t>13_carbannog_00_cooler</t>
-  </si>
-  <si>
-    <t>13_carbannog_01_cooler</t>
-  </si>
-  <si>
-    <t>13_carbannog_02_cooler</t>
-  </si>
-  <si>
-    <t>13_carbannog_03_cooler</t>
-  </si>
-  <si>
-    <t>13_tag_00_cooler</t>
-  </si>
-  <si>
-    <t>13_tag_01_cooler</t>
-  </si>
-  <si>
-    <t>13_tag_02_cooler</t>
-  </si>
-  <si>
-    <t>13_tim_00_cooler</t>
-  </si>
-  <si>
-    <t>13_tim_01_cooler</t>
-  </si>
-  <si>
-    <t>13_tim_02_cooler</t>
-  </si>
-  <si>
-    <t>13_tim_03_cooler</t>
-  </si>
-  <si>
-    <t>13_madbuddy_00_cooler</t>
-  </si>
-  <si>
-    <t>13_madbuddy_01_cooler</t>
-  </si>
-  <si>
-    <t>13_madbuddy_02_cooler</t>
-  </si>
-  <si>
-    <t>13_madbuddy_03_cooler</t>
-  </si>
-  <si>
-    <t>13_cat_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_pitbull_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -743,6 +655,93 @@
   </si>
   <si>
     <t>13_MadBuddy_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_cat_01_00</t>
+  </si>
+  <si>
+    <t>14_cat_01_01</t>
+  </si>
+  <si>
+    <t>14_cat_02_00</t>
+  </si>
+  <si>
+    <t>14_pitbull_01</t>
+  </si>
+  <si>
+    <t>14_pitbull_02</t>
+  </si>
+  <si>
+    <t>14_owl_01</t>
+  </si>
+  <si>
+    <t>14_carbannog_01</t>
+  </si>
+  <si>
+    <t>14_carbannog_02</t>
+  </si>
+  <si>
+    <t>14_carbannog_03</t>
+  </si>
+  <si>
+    <t>14_tag_01</t>
+  </si>
+  <si>
+    <t>14_tag_02</t>
+  </si>
+  <si>
+    <t>14_tim_01</t>
+  </si>
+  <si>
+    <t>14_tim_02</t>
+  </si>
+  <si>
+    <t>14_tim_03</t>
+  </si>
+  <si>
+    <t>14_madbuddy_01</t>
+  </si>
+  <si>
+    <t>14_madbuddy_02</t>
+  </si>
+  <si>
+    <t>14_madbuddy_03</t>
+  </si>
+  <si>
+    <t>14_pitbull_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_owl_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_crow_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_crow_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_salamander_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_carbannog_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_tag_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_tim_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_madbuddy_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,7 +1118,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1347,578 +1346,578 @@
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>13100</v>
+        <v>14100</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>13101</v>
+        <v>14101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>13102</v>
+        <v>14102</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13103</v>
+        <v>14103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13103</v>
+        <v>14104</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>13103</v>
+        <v>14105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>13103</v>
+        <v>14106</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>13103</v>
+        <v>14107</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>13103</v>
+        <v>14108</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>13103</v>
+        <v>14109</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>13103</v>
+        <v>14110</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>13103</v>
+        <v>14111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>13103</v>
+        <v>14112</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>13103</v>
+        <v>14113</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>13103</v>
+        <v>14114</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>13103</v>
+        <v>14115</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>13103</v>
+        <v>14116</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>13103</v>
+        <v>14117</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>13103</v>
+        <v>14118</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>13103</v>
+        <v>14119</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>13103</v>
+        <v>14120</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>13103</v>
+        <v>14121</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>13103</v>
+        <v>14122</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>13103</v>
+        <v>14123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>13103</v>
+        <v>14124</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>13103</v>
+        <v>14125</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>13103</v>
+        <v>14126</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/NpcSkill.xlsx
+++ b/DesignDocs/VariableData/NpcSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A366C866-C08E-409F-B19B-FBA2BC1C663C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B0A71C-CEEC-4C51-A004-7E124670CC5E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="231">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,6 +742,95 @@
   </si>
   <si>
     <t>14_madbuddy_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Ailliy_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Ailliy_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_01_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_00_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_01_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_00_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_01_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Ailliy_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_02_style</t>
+  </si>
+  <si>
+    <t>Ailliy_02_enhancer</t>
+  </si>
+  <si>
+    <t>Ailliy_02_cooler</t>
+  </si>
+  <si>
+    <t>에일리 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Ailliy_ready_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Ailliy_ready_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리 레디 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리 레디 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_00_ready_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_01_ready_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_00_ready_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailliy_01_ready_enhancer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +855,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,6 +865,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,11 +889,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1155,768 +1253,868 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>19100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>19101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>19103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>19104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>19200</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>19201</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>19105</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>19106</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>19107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>14100</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>14101</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>14102</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>14103</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14104</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>175</v>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>19108</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>19109</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>19110</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>19109</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>19110</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14105</v>
+        <v>14100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>14106</v>
+        <v>14101</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>14107</v>
+        <v>14102</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>14108</v>
+        <v>14103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>14109</v>
+        <v>14104</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>14110</v>
+        <v>14105</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>14111</v>
+        <v>14106</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>14112</v>
+        <v>14107</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>14113</v>
+        <v>14108</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>14114</v>
+        <v>14109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>14115</v>
+        <v>14110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>14116</v>
+        <v>14111</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>14117</v>
+        <v>14112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>14118</v>
+        <v>14113</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>14119</v>
+        <v>14114</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>14120</v>
+        <v>14115</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>14121</v>
+        <v>14116</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>14122</v>
+        <v>14117</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>14123</v>
+        <v>14118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>14124</v>
+        <v>14119</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>14125</v>
+        <v>14120</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <v>14121</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>14122</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>14123</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>14124</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>14125</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>14126</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>173</v>
       </c>
     </row>

--- a/DesignDocs/VariableData/NpcSkill.xlsx
+++ b/DesignDocs/VariableData/NpcSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B0A71C-CEEC-4C51-A004-7E124670CC5E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACE3EA7-7055-4853-B80B-75D638866178}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocs/VariableData/NpcSkill.xlsx
+++ b/DesignDocs/VariableData/NpcSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACE3EA7-7055-4853-B80B-75D638866178}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BCA373-4F61-4714-8645-072A0D3A8ABD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="236">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,6 +831,24 @@
   </si>
   <si>
     <t>Ailliy_01_ready_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_salamander_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도롱뇽 스킬 01</t>
+  </si>
+  <si>
+    <t>13_salamander_01_cooler</t>
+  </si>
+  <si>
+    <t>14_salamander_01_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_salamander_01_enhancer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,6 +2134,26 @@
       </c>
       <c r="F42" s="1" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>14127</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/NpcSkill.xlsx
+++ b/DesignDocs/VariableData/NpcSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BCA373-4F61-4714-8645-072A0D3A8ABD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D1B97-EC03-42F7-B5EE-B738EB15318F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="250">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -850,13 +850,64 @@
   <si>
     <t>14_salamander_01_enhancer</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Bloom_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Bloom_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Bloom_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블룸 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블룸 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블룸 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Bloom_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Bloom_01_style</t>
+  </si>
+  <si>
+    <t>19_Bloom_02_style</t>
+  </si>
+  <si>
+    <t>19_Bloom_00_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_Bloom_01_enhancer</t>
+  </si>
+  <si>
+    <t>19_Bloom_02_enhancer</t>
+  </si>
+  <si>
+    <t>Bloom_00_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloom_01_cooler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,6 +920,21 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -907,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +981,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1560,599 +1632,659 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14100</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>14101</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>14102</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>150</v>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>19111</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>19112</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>19113</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>14103</v>
+        <v>14100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>14104</v>
+        <v>14101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>14105</v>
+        <v>14102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>14106</v>
+        <v>14103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>14107</v>
+        <v>14104</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>14108</v>
+        <v>14105</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>14109</v>
+        <v>14106</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>14110</v>
+        <v>14107</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>14111</v>
+        <v>14108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>14112</v>
+        <v>14109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>14113</v>
+        <v>14110</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>14114</v>
+        <v>14111</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>14115</v>
+        <v>14112</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>14116</v>
+        <v>14113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>14117</v>
+        <v>14114</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>14118</v>
+        <v>14115</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>14119</v>
+        <v>14116</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>14120</v>
+        <v>14117</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>14121</v>
+        <v>14118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>14122</v>
+        <v>14119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>14123</v>
+        <v>14120</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>14124</v>
+        <v>14121</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>14125</v>
+        <v>14122</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>14126</v>
+        <v>14123</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
+        <v>14124</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>14125</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>14126</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>14127</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>233</v>
       </c>
     </row>

--- a/DesignDocs/VariableData/NpcSkill.xlsx
+++ b/DesignDocs/VariableData/NpcSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D1B97-EC03-42F7-B5EE-B738EB15318F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE97DC5C-E01E-45CC-B243-144CAC47D5F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="310">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -901,6 +901,197 @@
   </si>
   <si>
     <t>Bloom_01_cooler</t>
+  </si>
+  <si>
+    <t>18_Pickpock_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Gangster_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Gangster_01_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Thrower_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Mechanic_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Mechanic_01_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Welder_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Scarlett_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Scarlett_01_style</t>
+  </si>
+  <si>
+    <t>18_Scarlett_02_style</t>
+  </si>
+  <si>
+    <t>18_Dentin_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Dentin_01_style</t>
+  </si>
+  <si>
+    <t>18_Dentin_02_style</t>
+  </si>
+  <si>
+    <t>18_Camek_00_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Camek_01_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_Pickpock_00</t>
+  </si>
+  <si>
+    <t>18_Gangster_00</t>
+  </si>
+  <si>
+    <t>18_Gangster_01</t>
+  </si>
+  <si>
+    <t>18_Thrower_00</t>
+  </si>
+  <si>
+    <t>18_Mechanic_00</t>
+  </si>
+  <si>
+    <t>18_Mechanic_01</t>
+  </si>
+  <si>
+    <t>18_Welder_00</t>
+  </si>
+  <si>
+    <t>18_Scarlett_00</t>
+  </si>
+  <si>
+    <t>18_Scarlett_01</t>
+  </si>
+  <si>
+    <t>18_Scarlett_02</t>
+  </si>
+  <si>
+    <t>18_Dentin_00</t>
+  </si>
+  <si>
+    <t>18_Dentin_01</t>
+  </si>
+  <si>
+    <t>18_Dentin_02</t>
+  </si>
+  <si>
+    <t>18_Camek_00</t>
+  </si>
+  <si>
+    <t>18_Camek_01</t>
+  </si>
+  <si>
+    <t>소매치기 스킬 00</t>
+  </si>
+  <si>
+    <t>불량배 스킬 00</t>
+  </si>
+  <si>
+    <t>불량배 스킬 01</t>
+  </si>
+  <si>
+    <t>투척꾼 스킬 00</t>
+  </si>
+  <si>
+    <t>정비공 스킬 00</t>
+  </si>
+  <si>
+    <t>정비공 스킬 01</t>
+  </si>
+  <si>
+    <t>용접공 스킬 00</t>
+  </si>
+  <si>
+    <t>스칼렛 스킬 00</t>
+  </si>
+  <si>
+    <t>스칼렛 스킬 01</t>
+  </si>
+  <si>
+    <t>스칼렛 스킬 02</t>
+  </si>
+  <si>
+    <t>덴틴 스킬 00</t>
+  </si>
+  <si>
+    <t>덴틴 스킬 01</t>
+  </si>
+  <si>
+    <t>덴틴 스킬 02</t>
+  </si>
+  <si>
+    <t>카멕 스킬 00</t>
+  </si>
+  <si>
+    <t>Bloom_00_cooler</t>
+  </si>
+  <si>
+    <t>18_Pickpock_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Gangster_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Gangster_01_enhancer</t>
+  </si>
+  <si>
+    <t>18_Thrower_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Mechanic_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Mechanic_01_enhancer</t>
+  </si>
+  <si>
+    <t>18_Welder_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Scarlett_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Scarlett_01_enhancer</t>
+  </si>
+  <si>
+    <t>18_Scarlett_02_enhancer</t>
+  </si>
+  <si>
+    <t>18_Dentin_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Dentin_01_enhancer</t>
+  </si>
+  <si>
+    <t>18_Dentin_02_enhancer</t>
+  </si>
+  <si>
+    <t>18_Camek_00_enhancer</t>
+  </si>
+  <si>
+    <t>18_Camek_01_enhancer</t>
   </si>
 </sst>
 </file>
@@ -939,7 +1130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -958,6 +1149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE569C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -973,7 +1170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,6 +1184,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1303,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2287,6 +2487,321 @@
       <c r="F46" s="1" t="s">
         <v>233</v>
       </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>14128</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>14129</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>14130</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>14131</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>14132</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>14133</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>14134</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>14135</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>14136</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>14137</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>14138</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>14139</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>14140</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>14141</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>14142</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
